--- a/SAE_3_01/fichiers genere/S5BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5BFA.xlsx
@@ -3300,9 +3300,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -3320,10 +3328,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -3340,9 +3356,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -5091,10 +5115,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -6882,10 +6914,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -6902,10 +6942,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -6922,9 +6974,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -6942,9 +7006,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -8673,9 +8745,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8693,9 +8773,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -10464,8 +10552,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -10484,9 +10580,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -10504,10 +10608,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12255,8 +12371,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -12275,9 +12399,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12295,10 +12427,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12315,7 +12455,11 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S5BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5BFA.xlsx
@@ -6976,14 +6976,10 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B37" s="29" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -7006,17 +7002,9 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -8745,17 +8733,9 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A35" s="28" t="n"/>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8773,17 +8753,9 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -10559,7 +10531,7 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C35" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S5BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5BFA.xlsx
@@ -3274,8 +3274,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3294,9 +3302,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3314,10 +3330,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -3334,7 +3358,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -5033,9 +5061,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -8551,10 +8587,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8571,10 +8615,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8591,10 +8643,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8611,10 +8671,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8631,10 +8699,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8651,10 +8727,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12069,9 +12153,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12089,9 +12185,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -13828,8 +13936,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -13848,8 +13964,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -13868,8 +13992,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -13888,8 +14020,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -13908,8 +14048,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -15587,9 +15735,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15607,10 +15763,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15627,9 +15791,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -17346,10 +17518,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -19105,10 +19285,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -19125,10 +19313,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -19145,9 +19345,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -22623,8 +22831,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -22643,9 +22859,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22663,10 +22887,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S5BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5BFA.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R5.01 Initiation au management " sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R5.02 PPP" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R5.03 Stratégies de communicati" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R5.B.04 Programmation avancée e" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R5.B.05 Automatisation de la ch" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R5.B.06 Installation, configura" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R5.B.07 Virtualisation avancée" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R5.B.08 Continuité de service" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R5.B.09 Cybersécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R5.B.10 Modélisation mathématiq" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R5.B.11 Economie durable et num" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R5.B.12 Anglais de spécialité" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R5.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R5.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R5.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R5.B.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R5.B.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R5.B.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R5.B.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R5.B.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R5.B.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R5.B.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R5.B.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R5.B.12" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3281,10 +3281,14 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="n"/>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3310,7 +3314,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 6H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -3339,7 +3343,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 6H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -3365,7 +3369,11 @@
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 6H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5063,13 +5071,13 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -5089,9 +5097,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5109,9 +5125,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5129,9 +5153,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -5149,9 +5181,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -6828,9 +6868,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -6848,9 +6896,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6868,9 +6924,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8589,7 +8653,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
@@ -8617,7 +8681,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -8645,7 +8709,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -8673,7 +8737,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -8701,7 +8765,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -8729,7 +8793,7 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
@@ -8755,10 +8819,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8775,10 +8847,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8795,10 +8875,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -8815,10 +8903,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10394,9 +10490,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -10414,9 +10518,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -10434,9 +10546,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12158,11 +12278,7 @@
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -12192,7 +12308,7 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 2H</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
@@ -13943,10 +14059,14 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="n"/>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -13971,10 +14091,14 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="n"/>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -13999,10 +14123,14 @@
       </c>
       <c r="B37" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="n"/>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -14027,10 +14155,14 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="n"/>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -15743,7 +15875,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -15772,7 +15904,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -15799,7 +15931,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -15819,9 +15951,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -16781,7 +16921,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -17520,16 +17660,16 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17546,10 +17686,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17566,10 +17718,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19287,16 +19451,20 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -19315,18 +19483,18 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -19347,16 +19515,20 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="n"/>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19373,9 +19545,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -19393,9 +19577,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -19413,10 +19605,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -19433,9 +19633,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -21072,9 +21280,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21092,9 +21308,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -21112,9 +21336,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -21132,9 +21364,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -21152,10 +21392,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -22838,11 +23086,15 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 6H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -22861,16 +23113,20 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
+          <t>TD 6H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -22889,13 +23145,13 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 4H</t>
+          <t>TD 6H</t>
         </is>
       </c>
       <c r="D37" s="27" t="inlineStr">
@@ -22919,10 +23175,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S5BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5BFA.xlsx
@@ -3374,7 +3374,11 @@
           <t>TP 6H</t>
         </is>
       </c>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -16921,7 +16925,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
